--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -635,6 +635,10 @@
   </si>
   <si>
     <t>FamilyMemberHistory.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>The family member described</t>
@@ -3257,17 +3261,17 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3337,7 +3341,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3345,7 +3349,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3371,10 +3375,10 @@
         <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3404,10 +3408,10 @@
         <v>177</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3425,7 +3429,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3446,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3480,16 +3484,16 @@
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3514,13 +3518,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3538,7 +3542,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3590,17 +3594,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3653,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3658,7 +3662,7 @@
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -3670,7 +3674,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3701,19 +3705,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3762,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3771,7 +3775,7 @@
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -3783,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3791,7 +3795,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3814,70 +3818,70 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3886,7 +3890,7 @@
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3929,13 +3933,13 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3986,7 +3990,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4007,7 +4011,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4041,13 +4045,13 @@
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4076,10 +4080,10 @@
         <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4097,7 +4101,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4112,7 +4116,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4121,12 +4125,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4149,13 +4153,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4206,7 +4210,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4221,21 +4225,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4258,13 +4262,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4330,13 +4334,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4367,13 +4371,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4424,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4449,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4476,13 +4480,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4533,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4554,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4591,7 +4595,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -4644,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4665,7 +4669,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4673,11 +4677,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4699,10 +4703,10 @@
         <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4757,7 +4761,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4790,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4812,10 +4816,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4845,10 +4849,10 @@
         <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4866,7 +4870,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -4887,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4921,10 +4925,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4954,10 +4958,10 @@
         <v>177</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4975,7 +4979,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4996,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5027,13 +5031,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5084,7 +5088,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5136,17 +5140,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5195,7 +5199,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5216,7 +5220,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5224,7 +5228,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5247,13 +5251,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5304,7 +5308,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
